--- a/biology/Botanique/Acer_obtusatum/Acer_obtusatum.xlsx
+++ b/biology/Botanique/Acer_obtusatum/Acer_obtusatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acer obtusatum est une espèce végétale de la famille des Aceraceae. Cet érable est considéré par certains auteurs comme une sous-espèce d'Acer opalus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Acer obtusatum possède de grandes feuilles, qui mesurent jusqu’à 12 cm et sont découpées en trois à cinq lobes.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre vit dans le sud de l'Europe et au nord de l'Afrique. On le trouve en Italie (Sicile incluse), en France (dans les Alpes maritimes, Bouches du Rhône et en Corse), en ex-Yougoslavie, en Albanie, en Grèce et en Algérie.
 </t>
